--- a/proveedores para Edgar.xlsx
+++ b/proveedores para Edgar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="etchegaray" sheetId="1" r:id="rId1"/>
@@ -487,2826 +487,2831 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>8703900</v>
+            <v>8703300</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8701200</v>
+            <v>8703900</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>8708047</v>
+            <v>8701200</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>8708044</v>
+            <v>8708047</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>8708127</v>
+            <v>8708044</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>8708313</v>
+            <v>8708127</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>8708315</v>
+            <v>8708313</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>8708120</v>
+            <v>8708315</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>8708048</v>
+            <v>8708120</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>8708046</v>
+            <v>8708048</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>8708312</v>
+            <v>8708046</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>8708057</v>
+            <v>8708312</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>8708056</v>
+            <v>8708057</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>8708055</v>
+            <v>8708056</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>8708123</v>
+            <v>8708055</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>8708103</v>
+            <v>8708123</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>8703153</v>
+            <v>8708103</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>8707658</v>
+            <v>8703153</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>8707381</v>
+            <v>8707658</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>8707657</v>
+            <v>8707381</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>8520004</v>
+            <v>8707657</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>8520691</v>
+            <v>8520004</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>8686003</v>
+            <v>8520691</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>8513303</v>
+            <v>8686003</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>8513173</v>
+            <v>8513303</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>8513175</v>
+            <v>8513173</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>8205016</v>
+            <v>8513175</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>8705037</v>
+            <v>8205016</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>8521100</v>
+            <v>8705037</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>8521102</v>
+            <v>8521100</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>8521303</v>
+            <v>8521102</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>8521301</v>
+            <v>8521303</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>8521302</v>
+            <v>8521301</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>8520866</v>
+            <v>8521302</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>8521305</v>
+            <v>8520866</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>8521304</v>
+            <v>8521305</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>8519044</v>
+            <v>8521304</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>8519060</v>
+            <v>8519044</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>8519022</v>
+            <v>8519060</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>8519042</v>
+            <v>8519022</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>8519041</v>
+            <v>8519042</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>8520100</v>
+            <v>8519041</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>8520141</v>
+            <v>8520100</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>8520946</v>
+            <v>8520141</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>8520064</v>
+            <v>8520946</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>8520265</v>
+            <v>8520064</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>8520936</v>
+            <v>8520265</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>8520750</v>
+            <v>8520936</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>8520745</v>
+            <v>8520750</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>8520051</v>
+            <v>8520745</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>8520067</v>
+            <v>8520051</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>8520932</v>
+            <v>8520067</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>8520941</v>
+            <v>8520932</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>8520729</v>
+            <v>8520941</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>8520738</v>
+            <v>8520729</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>8520726</v>
+            <v>8520738</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>8503505</v>
+            <v>8520726</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>8520629</v>
+            <v>8503505</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>8520626</v>
+            <v>8520629</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>8503111</v>
+            <v>8520626</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>8503224</v>
+            <v>8503111</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>8612500</v>
+            <v>8503224</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>8503305</v>
+            <v>8612500</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>8686010</v>
+            <v>8503305</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>8525999</v>
+            <v>8686010</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>8503820</v>
+            <v>8525999</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>8503832</v>
+            <v>8503820</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>8503831</v>
+            <v>8503832</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>8503823</v>
+            <v>8503831</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>8703679</v>
+            <v>8503823</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>8703671</v>
+            <v>8703679</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>8703669</v>
+            <v>8703671</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>8703667</v>
+            <v>8703669</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>8703665</v>
+            <v>8703667</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>8703662</v>
+            <v>8703665</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>8703660</v>
+            <v>8703662</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>8703658</v>
+            <v>8703660</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>8703656</v>
+            <v>8703658</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>8703570</v>
+            <v>8703656</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>8701576</v>
+            <v>8703570</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>8701575</v>
+            <v>8701576</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>8701494</v>
+            <v>8701575</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>8701038</v>
+            <v>8701494</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>8612418</v>
+            <v>8701038</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>8525576</v>
+            <v>8612418</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>8522030</v>
+            <v>8525576</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88">
-            <v>8522012</v>
+            <v>8522030</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89">
-            <v>8521306</v>
+            <v>8522012</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90">
-            <v>8521100</v>
+            <v>8521306</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91">
-            <v>8521063</v>
+            <v>8521100</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>8521036</v>
+            <v>8521063</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93">
-            <v>8521014</v>
+            <v>8521036</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94">
-            <v>8520813</v>
+            <v>8521014</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>8520733</v>
+            <v>8520813</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96">
-            <v>8520513</v>
+            <v>8520733</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97">
-            <v>8520230</v>
+            <v>8520513</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98">
-            <v>8520162</v>
+            <v>8520230</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99">
-            <v>8520118</v>
+            <v>8520162</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100">
-            <v>8520110</v>
+            <v>8520118</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101">
-            <v>8520102</v>
+            <v>8520110</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102">
-            <v>8520045</v>
+            <v>8520102</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103">
-            <v>8520025</v>
+            <v>8520045</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104">
-            <v>8520016</v>
+            <v>8520025</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105">
-            <v>8520014</v>
+            <v>8520016</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106">
-            <v>8520007</v>
+            <v>8520014</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107">
-            <v>8520005</v>
+            <v>8520007</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108">
-            <v>8520003</v>
+            <v>8520005</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>8518014</v>
+            <v>8520003</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110">
-            <v>8708644</v>
+            <v>8518014</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111">
-            <v>8708639</v>
+            <v>8708644</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112">
-            <v>8708001</v>
+            <v>8708639</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113">
-            <v>8705568</v>
+            <v>8708001</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114">
-            <v>8705683</v>
+            <v>8705568</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115">
-            <v>8705661</v>
+            <v>8705683</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116">
-            <v>8503600</v>
+            <v>8705661</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117">
-            <v>8503303</v>
+            <v>8503600</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118">
-            <v>8503125</v>
+            <v>8503303</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119">
-            <v>8303300</v>
+            <v>8503125</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120">
-            <v>8303298</v>
+            <v>8303300</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121">
-            <v>8303299</v>
+            <v>8303298</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122">
-            <v>8303297</v>
+            <v>8303299</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123">
-            <v>8301558</v>
+            <v>8303297</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124">
-            <v>8708815</v>
+            <v>8301558</v>
           </cell>
         </row>
         <row r="125">
           <cell r="B125">
-            <v>8708657</v>
+            <v>8708815</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>8708643</v>
+            <v>8708657</v>
           </cell>
         </row>
         <row r="127">
           <cell r="B127">
-            <v>8708640</v>
+            <v>8708643</v>
           </cell>
         </row>
         <row r="128">
           <cell r="B128">
-            <v>8708637</v>
+            <v>8708640</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>8708635</v>
+            <v>8708637</v>
           </cell>
         </row>
         <row r="130">
           <cell r="B130">
-            <v>8708634</v>
+            <v>8708635</v>
           </cell>
         </row>
         <row r="131">
           <cell r="B131">
-            <v>8708631</v>
+            <v>8708634</v>
           </cell>
         </row>
         <row r="132">
           <cell r="B132">
-            <v>8708628</v>
+            <v>8708631</v>
           </cell>
         </row>
         <row r="133">
           <cell r="B133">
-            <v>8708625</v>
+            <v>8708628</v>
           </cell>
         </row>
         <row r="134">
           <cell r="B134">
-            <v>8708620</v>
+            <v>8708625</v>
           </cell>
         </row>
         <row r="135">
           <cell r="B135">
-            <v>8708618</v>
+            <v>8708620</v>
           </cell>
         </row>
         <row r="136">
           <cell r="B136">
-            <v>8708610</v>
+            <v>8708618</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137">
-            <v>8708609</v>
+            <v>8708610</v>
           </cell>
         </row>
         <row r="138">
           <cell r="B138">
-            <v>8708607</v>
+            <v>8708609</v>
           </cell>
         </row>
         <row r="139">
           <cell r="B139">
-            <v>8708603</v>
+            <v>8708607</v>
           </cell>
         </row>
         <row r="140">
           <cell r="B140">
-            <v>8708604</v>
+            <v>8708603</v>
           </cell>
         </row>
         <row r="141">
           <cell r="B141">
-            <v>8708603</v>
+            <v>8708604</v>
           </cell>
         </row>
         <row r="142">
           <cell r="B142">
-            <v>8708602</v>
+            <v>8708603</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143">
-            <v>8708601</v>
+            <v>8708602</v>
           </cell>
         </row>
         <row r="144">
           <cell r="B144">
-            <v>8708550</v>
+            <v>8708601</v>
           </cell>
         </row>
         <row r="145">
           <cell r="B145">
-            <v>8521050</v>
+            <v>8708550</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146">
-            <v>8612600</v>
+            <v>8521050</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147">
-            <v>8612462</v>
+            <v>8612600</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148">
-            <v>8612523</v>
+            <v>8612462</v>
           </cell>
         </row>
         <row r="149">
           <cell r="B149">
-            <v>8612794</v>
+            <v>8612523</v>
           </cell>
         </row>
         <row r="150">
           <cell r="B150">
-            <v>8612468</v>
+            <v>8612794</v>
           </cell>
         </row>
         <row r="151">
           <cell r="B151">
-            <v>8612793</v>
+            <v>8612468</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152">
-            <v>8520017</v>
+            <v>8612793</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153">
-            <v>8509729</v>
+            <v>8520017</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154">
-            <v>8507002</v>
+            <v>8509729</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155">
-            <v>8503712</v>
+            <v>8507002</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156">
-            <v>8503258</v>
+            <v>8503712</v>
           </cell>
         </row>
         <row r="157">
           <cell r="B157">
-            <v>8522011</v>
+            <v>8503258</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158">
-            <v>8503639</v>
+            <v>8522011</v>
           </cell>
         </row>
         <row r="159">
           <cell r="B159">
-            <v>8503045</v>
+            <v>8503639</v>
           </cell>
         </row>
         <row r="160">
           <cell r="B160">
-            <v>8503012</v>
+            <v>8503045</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161">
-            <v>8707553</v>
+            <v>8503012</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162">
-            <v>8707550</v>
+            <v>8707553</v>
           </cell>
         </row>
         <row r="163">
           <cell r="B163">
-            <v>8707552</v>
+            <v>8707550</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164">
-            <v>8707750</v>
+            <v>8707552</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165">
-            <v>8707509</v>
+            <v>8707750</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166">
-            <v>8708011</v>
+            <v>8707509</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167">
-            <v>8707555</v>
+            <v>8708011</v>
           </cell>
         </row>
         <row r="168">
           <cell r="B168">
-            <v>8707721</v>
+            <v>8707555</v>
           </cell>
         </row>
         <row r="169">
           <cell r="B169">
-            <v>8707024</v>
+            <v>8707721</v>
           </cell>
         </row>
         <row r="170">
           <cell r="B170">
-            <v>8707023</v>
+            <v>8707024</v>
           </cell>
         </row>
         <row r="171">
           <cell r="B171">
-            <v>8711700</v>
+            <v>8707023</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172">
-            <v>8708070</v>
+            <v>8711700</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173">
-            <v>8708272</v>
+            <v>8708070</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174">
-            <v>8703955</v>
+            <v>8708272</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175">
-            <v>8703042</v>
+            <v>8703955</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176">
-            <v>8703604</v>
+            <v>8703042</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177">
-            <v>8703506</v>
+            <v>8703604</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178">
-            <v>8703509</v>
+            <v>8703506</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179">
-            <v>8703925</v>
+            <v>8703509</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180">
-            <v>8703504</v>
+            <v>8703925</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181">
-            <v>8703041</v>
+            <v>8703504</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182">
-            <v>8703926</v>
+            <v>8703041</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183">
-            <v>8703619</v>
+            <v>8703926</v>
           </cell>
         </row>
         <row r="184">
           <cell r="B184">
-            <v>8703615</v>
+            <v>8703619</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185">
-            <v>8703810</v>
+            <v>8703615</v>
           </cell>
         </row>
         <row r="186">
           <cell r="B186">
-            <v>8703550</v>
+            <v>8703810</v>
           </cell>
         </row>
         <row r="187">
           <cell r="B187">
-            <v>8703812</v>
+            <v>8703550</v>
           </cell>
         </row>
         <row r="188">
           <cell r="B188">
-            <v>8703502</v>
+            <v>8703812</v>
           </cell>
         </row>
         <row r="189">
           <cell r="B189">
-            <v>8703956</v>
+            <v>8703502</v>
           </cell>
         </row>
         <row r="190">
           <cell r="B190">
-            <v>8703960</v>
+            <v>8703956</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191">
-            <v>8703241</v>
+            <v>8703960</v>
           </cell>
         </row>
         <row r="192">
           <cell r="B192">
-            <v>8707113</v>
+            <v>8703241</v>
           </cell>
         </row>
         <row r="193">
           <cell r="B193">
-            <v>8703500</v>
+            <v>8707113</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194">
-            <v>8703240</v>
+            <v>8703500</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195">
-            <v>8703241</v>
+            <v>8703240</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196">
-            <v>8703702</v>
+            <v>8703241</v>
           </cell>
         </row>
         <row r="197">
           <cell r="B197">
-            <v>8703157</v>
+            <v>8703702</v>
           </cell>
         </row>
         <row r="198">
           <cell r="B198">
-            <v>8703103</v>
+            <v>8703157</v>
           </cell>
         </row>
         <row r="199">
           <cell r="B199">
-            <v>8703811</v>
+            <v>8703103</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200">
-            <v>8703051</v>
+            <v>8703811</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201">
-            <v>8703036</v>
+            <v>8703051</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202">
-            <v>8703038</v>
+            <v>8703036</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203">
-            <v>8703207</v>
+            <v>8703038</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204">
-            <v>8703205</v>
+            <v>8703207</v>
           </cell>
         </row>
         <row r="205">
           <cell r="B205">
-            <v>8703206</v>
+            <v>8703205</v>
           </cell>
         </row>
         <row r="206">
           <cell r="B206">
-            <v>8703208</v>
+            <v>8703206</v>
           </cell>
         </row>
         <row r="207">
           <cell r="B207">
-            <v>8703557</v>
+            <v>8703208</v>
           </cell>
         </row>
         <row r="208">
           <cell r="B208">
-            <v>8703250</v>
+            <v>8703557</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209">
-            <v>8703197</v>
+            <v>8703250</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210">
-            <v>8708198</v>
+            <v>8703197</v>
           </cell>
         </row>
         <row r="211">
           <cell r="B211">
-            <v>8703018</v>
+            <v>8708198</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212">
-            <v>8708049</v>
+            <v>8703018</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213">
-            <v>8703200</v>
+            <v>8708049</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214">
-            <v>8703252</v>
+            <v>8703200</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215">
-            <v>8708196</v>
+            <v>8703252</v>
           </cell>
         </row>
         <row r="216">
           <cell r="B216">
-            <v>8703162</v>
+            <v>8708196</v>
           </cell>
         </row>
         <row r="217">
           <cell r="B217">
-            <v>8703376</v>
+            <v>8703162</v>
           </cell>
         </row>
         <row r="218">
           <cell r="B218">
-            <v>8703110</v>
+            <v>8703376</v>
           </cell>
         </row>
         <row r="219">
           <cell r="B219">
-            <v>8708213</v>
+            <v>8703110</v>
           </cell>
         </row>
         <row r="220">
           <cell r="B220">
-            <v>8703641</v>
+            <v>8708213</v>
           </cell>
         </row>
         <row r="221">
           <cell r="B221">
-            <v>8703017</v>
+            <v>8703641</v>
           </cell>
         </row>
         <row r="222">
           <cell r="B222">
-            <v>8703699</v>
+            <v>8703017</v>
           </cell>
         </row>
         <row r="223">
           <cell r="B223">
-            <v>8703601</v>
+            <v>8703699</v>
           </cell>
         </row>
         <row r="224">
           <cell r="B224">
-            <v>8703004</v>
+            <v>8703601</v>
           </cell>
         </row>
         <row r="225">
           <cell r="B225">
-            <v>8703703</v>
+            <v>8703004</v>
           </cell>
         </row>
         <row r="226">
           <cell r="B226">
-            <v>8203830</v>
+            <v>8703703</v>
           </cell>
         </row>
         <row r="227">
           <cell r="B227">
-            <v>8203265</v>
+            <v>8203830</v>
           </cell>
         </row>
         <row r="228">
           <cell r="B228">
-            <v>8505688</v>
+            <v>8203265</v>
           </cell>
         </row>
         <row r="229">
           <cell r="B229">
-            <v>8505689</v>
+            <v>8505688</v>
           </cell>
         </row>
         <row r="230">
           <cell r="B230">
-            <v>2301046</v>
+            <v>8505689</v>
           </cell>
         </row>
         <row r="231">
           <cell r="B231">
-            <v>2301666</v>
+            <v>2301046</v>
           </cell>
         </row>
         <row r="232">
           <cell r="B232">
-            <v>2301333</v>
+            <v>2301666</v>
           </cell>
         </row>
         <row r="233">
           <cell r="B233">
-            <v>2301900</v>
+            <v>2301333</v>
           </cell>
         </row>
         <row r="234">
           <cell r="B234">
-            <v>2301777</v>
+            <v>2301900</v>
           </cell>
         </row>
         <row r="235">
           <cell r="B235">
-            <v>2301300</v>
+            <v>2301777</v>
           </cell>
         </row>
         <row r="236">
           <cell r="B236">
-            <v>2301048</v>
+            <v>2301300</v>
           </cell>
         </row>
         <row r="237">
           <cell r="B237">
-            <v>2301158</v>
+            <v>2301048</v>
           </cell>
         </row>
         <row r="238">
           <cell r="B238">
-            <v>2301888</v>
+            <v>2301158</v>
           </cell>
         </row>
         <row r="239">
           <cell r="B239">
-            <v>2601003</v>
+            <v>2301888</v>
           </cell>
         </row>
         <row r="240">
           <cell r="B240">
-            <v>2601004</v>
+            <v>2601003</v>
           </cell>
         </row>
         <row r="241">
           <cell r="B241">
-            <v>8503202</v>
+            <v>2601004</v>
           </cell>
         </row>
         <row r="242">
           <cell r="B242">
-            <v>8503061</v>
+            <v>8503202</v>
           </cell>
         </row>
         <row r="243">
           <cell r="B243">
-            <v>8401003</v>
+            <v>8503061</v>
           </cell>
         </row>
         <row r="244">
           <cell r="B244">
-            <v>8401011</v>
+            <v>8401003</v>
           </cell>
         </row>
         <row r="245">
           <cell r="B245">
-            <v>8401012</v>
+            <v>8401011</v>
           </cell>
         </row>
         <row r="246">
           <cell r="B246">
-            <v>8401001</v>
+            <v>8401012</v>
           </cell>
         </row>
         <row r="247">
           <cell r="B247">
-            <v>8401009</v>
+            <v>8401001</v>
           </cell>
         </row>
         <row r="248">
           <cell r="B248">
-            <v>8401010</v>
+            <v>8401009</v>
           </cell>
         </row>
         <row r="249">
           <cell r="B249">
-            <v>8401005</v>
+            <v>8401010</v>
           </cell>
         </row>
         <row r="250">
           <cell r="B250">
-            <v>8401006</v>
+            <v>8401005</v>
           </cell>
         </row>
         <row r="251">
           <cell r="B251">
-            <v>8401004</v>
+            <v>8401006</v>
           </cell>
         </row>
         <row r="252">
           <cell r="B252">
-            <v>8701652</v>
+            <v>8401004</v>
           </cell>
         </row>
         <row r="253">
           <cell r="B253">
-            <v>8701653</v>
+            <v>8701652</v>
           </cell>
         </row>
         <row r="254">
           <cell r="B254">
-            <v>8703152</v>
+            <v>8701653</v>
           </cell>
         </row>
         <row r="255">
           <cell r="B255">
-            <v>8703150</v>
+            <v>8703152</v>
           </cell>
         </row>
         <row r="256">
           <cell r="B256">
-            <v>8703151</v>
+            <v>8703150</v>
           </cell>
         </row>
         <row r="257">
           <cell r="B257">
-            <v>8703047</v>
+            <v>8703151</v>
           </cell>
         </row>
         <row r="258">
           <cell r="B258">
-            <v>8703102</v>
+            <v>8703047</v>
           </cell>
         </row>
         <row r="259">
           <cell r="B259">
-            <v>2103217</v>
+            <v>8703102</v>
           </cell>
         </row>
         <row r="260">
           <cell r="B260">
-            <v>2220100</v>
+            <v>2103217</v>
           </cell>
         </row>
         <row r="261">
           <cell r="B261">
-            <v>2101555</v>
+            <v>2220100</v>
           </cell>
         </row>
         <row r="262">
           <cell r="B262">
-            <v>2101350</v>
+            <v>2101555</v>
           </cell>
         </row>
         <row r="263">
           <cell r="B263">
-            <v>2101004</v>
+            <v>2101350</v>
           </cell>
         </row>
         <row r="264">
           <cell r="B264">
-            <v>2101550</v>
+            <v>2101004</v>
           </cell>
         </row>
         <row r="265">
           <cell r="B265">
-            <v>2220444</v>
+            <v>2101550</v>
           </cell>
         </row>
         <row r="266">
           <cell r="B266">
-            <v>2220456</v>
+            <v>2220444</v>
           </cell>
         </row>
         <row r="267">
           <cell r="B267">
-            <v>2220750</v>
+            <v>2220456</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268">
-            <v>2220520</v>
+            <v>2220750</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269">
-            <v>2220601</v>
+            <v>2220520</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270">
-            <v>2220004</v>
+            <v>2220601</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271">
-            <v>2220856</v>
+            <v>2220004</v>
           </cell>
         </row>
         <row r="272">
           <cell r="B272">
-            <v>2220333</v>
+            <v>2220856</v>
           </cell>
         </row>
         <row r="273">
           <cell r="B273">
-            <v>2220292</v>
+            <v>2220333</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274">
-            <v>8708107</v>
+            <v>2220292</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275">
-            <v>8705553</v>
+            <v>8708107</v>
           </cell>
         </row>
         <row r="276">
           <cell r="B276">
-            <v>8705749</v>
+            <v>8705553</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277">
-            <v>8705861</v>
+            <v>8705749</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278">
-            <v>8708109</v>
+            <v>8705861</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279">
-            <v>8705003</v>
+            <v>8708109</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280">
-            <v>8501027</v>
+            <v>8705003</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281">
-            <v>8501025</v>
+            <v>8501027</v>
           </cell>
         </row>
         <row r="282">
           <cell r="B282">
-            <v>8705233</v>
+            <v>8501025</v>
           </cell>
         </row>
         <row r="283">
           <cell r="B283">
-            <v>8705072</v>
+            <v>8705233</v>
           </cell>
         </row>
         <row r="284">
           <cell r="B284">
-            <v>8705100</v>
+            <v>8705072</v>
           </cell>
         </row>
         <row r="285">
           <cell r="B285">
-            <v>8705459</v>
+            <v>8705100</v>
           </cell>
         </row>
         <row r="286">
           <cell r="B286">
-            <v>8705551</v>
+            <v>8705459</v>
           </cell>
         </row>
         <row r="287">
           <cell r="B287">
-            <v>8705001</v>
+            <v>8705551</v>
           </cell>
         </row>
         <row r="288">
           <cell r="B288">
-            <v>8705552</v>
+            <v>8705001</v>
           </cell>
         </row>
         <row r="289">
           <cell r="B289">
-            <v>8705556</v>
+            <v>8705552</v>
           </cell>
         </row>
         <row r="290">
           <cell r="B290">
-            <v>8705370</v>
+            <v>8705556</v>
           </cell>
         </row>
         <row r="291">
           <cell r="B291">
-            <v>8705750</v>
+            <v>8705370</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292">
-            <v>8705019</v>
+            <v>8705750</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293">
-            <v>8705018</v>
+            <v>8705019</v>
           </cell>
         </row>
         <row r="294">
           <cell r="B294">
-            <v>1407093</v>
+            <v>8705018</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295">
-            <v>1120280</v>
+            <v>1407093</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296">
-            <v>1120840</v>
+            <v>1120280</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297">
-            <v>1130226</v>
+            <v>1120840</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298">
-            <v>1120764</v>
+            <v>1130226</v>
           </cell>
         </row>
         <row r="299">
           <cell r="B299">
-            <v>1130495</v>
+            <v>1120764</v>
           </cell>
         </row>
         <row r="300">
           <cell r="B300">
-            <v>1130009</v>
+            <v>1130495</v>
           </cell>
         </row>
         <row r="301">
           <cell r="B301">
-            <v>1130008</v>
+            <v>1130009</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302">
-            <v>8708105</v>
+            <v>1130008</v>
           </cell>
         </row>
         <row r="303">
           <cell r="B303">
-            <v>8708053</v>
+            <v>8708105</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304">
-            <v>8708054</v>
+            <v>8708053</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305">
-            <v>8706002</v>
+            <v>8708054</v>
           </cell>
         </row>
         <row r="306">
           <cell r="B306">
-            <v>8708121</v>
+            <v>8706002</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307">
-            <v>8708227</v>
+            <v>8708121</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308">
-            <v>8708117</v>
+            <v>8708227</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309">
-            <v>8708226</v>
+            <v>8708117</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310">
-            <v>8708100</v>
+            <v>8708226</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311">
-            <v>8708114</v>
+            <v>8708100</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312">
-            <v>8708311</v>
+            <v>8708114</v>
           </cell>
         </row>
         <row r="313">
           <cell r="B313">
-            <v>8708101</v>
+            <v>8708311</v>
           </cell>
         </row>
         <row r="314">
           <cell r="B314">
-            <v>8703099</v>
+            <v>8708101</v>
           </cell>
         </row>
         <row r="315">
           <cell r="B315">
-            <v>8708102</v>
+            <v>8703099</v>
           </cell>
         </row>
         <row r="316">
           <cell r="B316">
-            <v>8707117</v>
+            <v>8708102</v>
           </cell>
         </row>
         <row r="317">
           <cell r="B317">
-            <v>8708637</v>
+            <v>8707117</v>
           </cell>
         </row>
         <row r="318">
           <cell r="B318">
-            <v>8518011</v>
+            <v>8708637</v>
           </cell>
         </row>
         <row r="319">
           <cell r="B319">
-            <v>1130254</v>
+            <v>8518011</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320">
-            <v>1130750</v>
+            <v>1130254</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321">
-            <v>1130284</v>
+            <v>1130750</v>
           </cell>
         </row>
         <row r="322">
           <cell r="B322">
-            <v>8517000</v>
+            <v>1130284</v>
           </cell>
         </row>
         <row r="323">
           <cell r="B323">
-            <v>8517902</v>
+            <v>8517000</v>
           </cell>
         </row>
         <row r="324">
           <cell r="B324">
-            <v>8517900</v>
+            <v>8517902</v>
           </cell>
         </row>
         <row r="325">
           <cell r="B325">
-            <v>8517901</v>
+            <v>8517900</v>
           </cell>
         </row>
         <row r="326">
           <cell r="B326">
-            <v>8517050</v>
+            <v>8517901</v>
           </cell>
         </row>
         <row r="327">
           <cell r="B327">
-            <v>8717033</v>
+            <v>8517050</v>
           </cell>
         </row>
         <row r="328">
           <cell r="B328">
-            <v>8517103</v>
+            <v>8717033</v>
           </cell>
         </row>
         <row r="329">
           <cell r="B329">
-            <v>8517235</v>
+            <v>8517103</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330">
-            <v>8306200</v>
+            <v>8517235</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331">
-            <v>8306101</v>
+            <v>8306200</v>
           </cell>
         </row>
         <row r="332">
           <cell r="B332">
-            <v>8400240</v>
+            <v>8306101</v>
           </cell>
         </row>
         <row r="333">
           <cell r="B333">
-            <v>8306100</v>
+            <v>8400240</v>
           </cell>
         </row>
         <row r="334">
           <cell r="B334">
-            <v>8400119</v>
+            <v>8306100</v>
           </cell>
         </row>
         <row r="335">
           <cell r="B335">
-            <v>8400024</v>
+            <v>8400119</v>
           </cell>
         </row>
         <row r="336">
           <cell r="B336">
-            <v>8400001</v>
+            <v>8400024</v>
           </cell>
         </row>
         <row r="337">
           <cell r="B337">
-            <v>8400129</v>
+            <v>8400001</v>
           </cell>
         </row>
         <row r="338">
           <cell r="B338">
-            <v>8400128</v>
+            <v>8400129</v>
           </cell>
         </row>
         <row r="339">
           <cell r="B339">
-            <v>8400689</v>
+            <v>8400128</v>
           </cell>
         </row>
         <row r="340">
           <cell r="B340">
-            <v>8400908</v>
+            <v>8400689</v>
           </cell>
         </row>
         <row r="341">
           <cell r="B341">
-            <v>8400691</v>
+            <v>8400908</v>
           </cell>
         </row>
         <row r="342">
           <cell r="B342">
-            <v>8400010</v>
+            <v>8400691</v>
           </cell>
         </row>
         <row r="343">
           <cell r="B343">
-            <v>8305002</v>
+            <v>8400010</v>
           </cell>
         </row>
         <row r="344">
           <cell r="B344">
-            <v>8305006</v>
+            <v>8305002</v>
           </cell>
         </row>
         <row r="345">
           <cell r="B345">
-            <v>8305000</v>
+            <v>8305006</v>
           </cell>
         </row>
         <row r="346">
           <cell r="B346">
-            <v>5101002</v>
+            <v>8305000</v>
           </cell>
         </row>
         <row r="347">
           <cell r="B347">
-            <v>5101654</v>
+            <v>5101002</v>
           </cell>
         </row>
         <row r="348">
           <cell r="B348">
-            <v>5101863</v>
+            <v>5101654</v>
           </cell>
         </row>
         <row r="349">
           <cell r="B349">
-            <v>5101204</v>
+            <v>5101863</v>
           </cell>
         </row>
         <row r="350">
           <cell r="B350">
-            <v>5101883</v>
+            <v>5101204</v>
           </cell>
         </row>
         <row r="351">
           <cell r="B351">
-            <v>5101029</v>
+            <v>5101883</v>
           </cell>
         </row>
         <row r="352">
           <cell r="B352">
-            <v>5101855</v>
+            <v>5101029</v>
           </cell>
         </row>
         <row r="353">
           <cell r="B353">
-            <v>5101845</v>
+            <v>5101855</v>
           </cell>
         </row>
         <row r="354">
           <cell r="B354">
-            <v>5101873</v>
+            <v>5101845</v>
           </cell>
         </row>
         <row r="355">
           <cell r="B355">
-            <v>5101886</v>
+            <v>5101873</v>
           </cell>
         </row>
         <row r="356">
           <cell r="B356">
-            <v>5101165</v>
+            <v>5101886</v>
           </cell>
         </row>
         <row r="357">
           <cell r="B357">
-            <v>5101006</v>
+            <v>5101165</v>
           </cell>
         </row>
         <row r="358">
           <cell r="B358">
-            <v>5101140</v>
+            <v>5101006</v>
           </cell>
         </row>
         <row r="359">
           <cell r="B359">
-            <v>5101852</v>
+            <v>5101140</v>
           </cell>
         </row>
         <row r="360">
           <cell r="B360">
-            <v>5101052</v>
+            <v>5101852</v>
           </cell>
         </row>
         <row r="361">
           <cell r="B361">
-            <v>5101047</v>
+            <v>5101052</v>
           </cell>
         </row>
         <row r="362">
           <cell r="B362">
-            <v>5101048</v>
+            <v>5101047</v>
           </cell>
         </row>
         <row r="363">
           <cell r="B363">
-            <v>5101507</v>
+            <v>5101048</v>
           </cell>
         </row>
         <row r="364">
           <cell r="B364">
-            <v>5101033</v>
+            <v>5101507</v>
           </cell>
         </row>
         <row r="365">
           <cell r="B365">
-            <v>5101500</v>
+            <v>5101033</v>
           </cell>
         </row>
         <row r="366">
           <cell r="B366">
-            <v>5101230</v>
+            <v>5101500</v>
           </cell>
         </row>
         <row r="367">
           <cell r="B367">
-            <v>5101234</v>
+            <v>5101230</v>
           </cell>
         </row>
         <row r="368">
           <cell r="B368">
-            <v>8508132</v>
+            <v>5101234</v>
           </cell>
         </row>
         <row r="369">
           <cell r="B369">
-            <v>8708024</v>
+            <v>8508132</v>
           </cell>
         </row>
         <row r="370">
           <cell r="B370">
-            <v>8708040</v>
+            <v>8708024</v>
           </cell>
         </row>
         <row r="371">
           <cell r="B371">
-            <v>8708010</v>
+            <v>8708040</v>
           </cell>
         </row>
         <row r="372">
           <cell r="B372">
-            <v>8707000</v>
+            <v>8708010</v>
           </cell>
         </row>
         <row r="373">
           <cell r="B373">
-            <v>8515748</v>
+            <v>8707000</v>
           </cell>
         </row>
         <row r="374">
           <cell r="B374">
-            <v>8515746</v>
+            <v>8515748</v>
           </cell>
         </row>
         <row r="375">
           <cell r="B375">
-            <v>8515747</v>
+            <v>8515746</v>
           </cell>
         </row>
         <row r="376">
           <cell r="B376">
-            <v>8701494</v>
+            <v>8515747</v>
           </cell>
         </row>
         <row r="377">
           <cell r="B377">
-            <v>8701038</v>
+            <v>8701494</v>
           </cell>
         </row>
         <row r="378">
           <cell r="B378">
-            <v>8701350</v>
+            <v>8701038</v>
           </cell>
         </row>
         <row r="379">
           <cell r="B379">
-            <v>8701800</v>
+            <v>8701350</v>
           </cell>
         </row>
         <row r="380">
           <cell r="B380">
-            <v>8701000</v>
+            <v>8701800</v>
           </cell>
         </row>
         <row r="381">
           <cell r="B381">
-            <v>8701655</v>
+            <v>8701000</v>
           </cell>
         </row>
         <row r="382">
           <cell r="B382">
-            <v>8701741</v>
+            <v>8701655</v>
           </cell>
         </row>
         <row r="383">
           <cell r="B383">
-            <v>8701033</v>
+            <v>8701741</v>
           </cell>
         </row>
         <row r="384">
           <cell r="B384">
-            <v>8701735</v>
+            <v>8701033</v>
           </cell>
         </row>
         <row r="385">
           <cell r="B385">
-            <v>8701999</v>
+            <v>8701735</v>
           </cell>
         </row>
         <row r="386">
           <cell r="B386">
-            <v>8701542</v>
+            <v>8701999</v>
           </cell>
         </row>
         <row r="387">
           <cell r="B387">
-            <v>8701214</v>
+            <v>8701542</v>
           </cell>
         </row>
         <row r="388">
           <cell r="B388">
-            <v>8701092</v>
+            <v>8701214</v>
           </cell>
         </row>
         <row r="389">
           <cell r="B389">
-            <v>8701090</v>
+            <v>8701092</v>
           </cell>
         </row>
         <row r="390">
           <cell r="B390">
-            <v>8701093</v>
+            <v>8701090</v>
           </cell>
         </row>
         <row r="391">
           <cell r="B391">
-            <v>2101901</v>
+            <v>8701093</v>
           </cell>
         </row>
         <row r="392">
           <cell r="B392">
-            <v>2101751</v>
+            <v>2101901</v>
           </cell>
         </row>
         <row r="393">
           <cell r="B393">
-            <v>2101496</v>
+            <v>2101751</v>
           </cell>
         </row>
         <row r="394">
           <cell r="B394">
-            <v>2101105</v>
+            <v>2101496</v>
           </cell>
         </row>
         <row r="395">
           <cell r="B395">
-            <v>2101000</v>
+            <v>2101105</v>
           </cell>
         </row>
         <row r="396">
           <cell r="B396">
-            <v>2101500</v>
+            <v>2101000</v>
           </cell>
         </row>
         <row r="397">
           <cell r="B397">
-            <v>2103069</v>
+            <v>2101500</v>
           </cell>
         </row>
         <row r="398">
           <cell r="B398">
-            <v>2101202</v>
+            <v>2103069</v>
           </cell>
         </row>
         <row r="399">
           <cell r="B399">
-            <v>2103068</v>
+            <v>2101202</v>
           </cell>
         </row>
         <row r="400">
           <cell r="B400">
-            <v>2101900</v>
+            <v>2103068</v>
           </cell>
         </row>
         <row r="401">
           <cell r="B401">
-            <v>2101750</v>
+            <v>2101900</v>
           </cell>
         </row>
         <row r="402">
           <cell r="B402">
-            <v>2101300</v>
+            <v>2101750</v>
           </cell>
         </row>
         <row r="403">
           <cell r="B403">
-            <v>2101110</v>
+            <v>2101300</v>
           </cell>
         </row>
         <row r="404">
           <cell r="B404">
-            <v>2101100</v>
+            <v>2101110</v>
           </cell>
         </row>
         <row r="405">
           <cell r="B405">
-            <v>2101877</v>
+            <v>2101100</v>
           </cell>
         </row>
         <row r="406">
           <cell r="B406">
-            <v>2101495</v>
+            <v>2101877</v>
           </cell>
         </row>
         <row r="407">
           <cell r="B407">
-            <v>5320787</v>
+            <v>2101495</v>
           </cell>
         </row>
         <row r="408">
           <cell r="B408">
-            <v>8307810</v>
+            <v>5320787</v>
           </cell>
         </row>
         <row r="409">
           <cell r="B409">
-            <v>2401100</v>
+            <v>8307810</v>
           </cell>
         </row>
         <row r="410">
           <cell r="B410">
-            <v>2401298</v>
+            <v>2401100</v>
           </cell>
         </row>
         <row r="411">
           <cell r="B411">
-            <v>2401806</v>
+            <v>2401298</v>
           </cell>
         </row>
         <row r="412">
           <cell r="B412">
-            <v>8708300</v>
+            <v>2401806</v>
           </cell>
         </row>
         <row r="413">
           <cell r="B413">
-            <v>8708301</v>
+            <v>8708300</v>
           </cell>
         </row>
         <row r="414">
           <cell r="B414">
-            <v>8708999</v>
+            <v>8708301</v>
           </cell>
         </row>
         <row r="415">
           <cell r="B415">
-            <v>8708112</v>
+            <v>8708999</v>
           </cell>
         </row>
         <row r="416">
           <cell r="B416">
-            <v>8708111</v>
+            <v>8708112</v>
           </cell>
         </row>
         <row r="417">
           <cell r="B417">
-            <v>2401103</v>
+            <v>8708111</v>
           </cell>
         </row>
         <row r="418">
           <cell r="B418">
-            <v>8708113</v>
+            <v>2401103</v>
           </cell>
         </row>
         <row r="419">
           <cell r="B419">
-            <v>8708116</v>
+            <v>8708113</v>
           </cell>
         </row>
         <row r="420">
           <cell r="B420">
-            <v>5101625</v>
+            <v>8708116</v>
           </cell>
         </row>
         <row r="421">
           <cell r="B421">
-            <v>2401022</v>
+            <v>5101625</v>
           </cell>
         </row>
         <row r="422">
           <cell r="B422">
-            <v>2401249</v>
+            <v>2401022</v>
           </cell>
         </row>
         <row r="423">
           <cell r="B423">
-            <v>2401584</v>
+            <v>2401249</v>
           </cell>
         </row>
         <row r="424">
           <cell r="B424">
-            <v>2401550</v>
+            <v>2401584</v>
           </cell>
         </row>
         <row r="425">
           <cell r="B425">
-            <v>2401242</v>
+            <v>2401550</v>
           </cell>
         </row>
         <row r="426">
           <cell r="B426">
-            <v>8203124</v>
+            <v>2401242</v>
           </cell>
         </row>
         <row r="427">
           <cell r="B427">
-            <v>8303129</v>
+            <v>8203124</v>
           </cell>
         </row>
         <row r="428">
           <cell r="B428">
-            <v>8303544</v>
+            <v>8303129</v>
           </cell>
         </row>
         <row r="429">
           <cell r="B429">
-            <v>8303113</v>
+            <v>8303544</v>
           </cell>
         </row>
         <row r="430">
           <cell r="B430">
-            <v>8303130</v>
+            <v>8303113</v>
           </cell>
         </row>
         <row r="431">
           <cell r="B431">
-            <v>8303120</v>
+            <v>8303130</v>
           </cell>
         </row>
         <row r="432">
           <cell r="B432">
-            <v>8303674</v>
+            <v>8303120</v>
           </cell>
         </row>
         <row r="433">
           <cell r="B433">
-            <v>8303005</v>
+            <v>8303674</v>
           </cell>
         </row>
         <row r="434">
           <cell r="B434">
-            <v>8303123</v>
+            <v>8303005</v>
           </cell>
         </row>
         <row r="435">
           <cell r="B435">
-            <v>5101013</v>
+            <v>8303123</v>
           </cell>
         </row>
         <row r="436">
           <cell r="B436">
-            <v>8702661</v>
+            <v>5101013</v>
           </cell>
         </row>
         <row r="437">
           <cell r="B437">
-            <v>8702660</v>
+            <v>8702661</v>
           </cell>
         </row>
         <row r="438">
           <cell r="B438">
-            <v>5101443</v>
+            <v>8702660</v>
           </cell>
         </row>
         <row r="439">
           <cell r="B439">
-            <v>5101105</v>
+            <v>5101443</v>
           </cell>
         </row>
         <row r="440">
           <cell r="B440">
-            <v>5101556</v>
+            <v>5101105</v>
           </cell>
         </row>
         <row r="441">
           <cell r="B441">
-            <v>5101557</v>
+            <v>5101556</v>
           </cell>
         </row>
         <row r="442">
           <cell r="B442">
-            <v>5101555</v>
+            <v>5101557</v>
           </cell>
         </row>
         <row r="443">
           <cell r="B443">
-            <v>5101187</v>
+            <v>5101555</v>
           </cell>
         </row>
         <row r="444">
           <cell r="B444">
-            <v>5101192</v>
+            <v>5101187</v>
           </cell>
         </row>
         <row r="445">
           <cell r="B445">
-            <v>5101093</v>
+            <v>5101192</v>
           </cell>
         </row>
         <row r="446">
           <cell r="B446">
-            <v>5101090</v>
+            <v>5101093</v>
           </cell>
         </row>
         <row r="447">
           <cell r="B447">
-            <v>5101101</v>
+            <v>5101090</v>
           </cell>
         </row>
         <row r="448">
           <cell r="B448">
-            <v>5101106</v>
+            <v>5101101</v>
           </cell>
         </row>
         <row r="449">
           <cell r="B449">
-            <v>5101001</v>
+            <v>5101106</v>
           </cell>
         </row>
         <row r="450">
           <cell r="B450">
-            <v>5101171</v>
+            <v>5101001</v>
           </cell>
         </row>
         <row r="451">
           <cell r="B451">
-            <v>5101850</v>
+            <v>5101171</v>
           </cell>
         </row>
         <row r="452">
           <cell r="B452">
-            <v>5101170</v>
+            <v>5101850</v>
           </cell>
         </row>
         <row r="453">
           <cell r="B453">
-            <v>5101915</v>
+            <v>5101170</v>
           </cell>
         </row>
         <row r="454">
           <cell r="B454">
-            <v>5101924</v>
+            <v>5101915</v>
           </cell>
         </row>
         <row r="455">
           <cell r="B455">
-            <v>5101917</v>
+            <v>5101924</v>
           </cell>
         </row>
         <row r="456">
           <cell r="B456">
-            <v>5101902</v>
+            <v>5101917</v>
           </cell>
         </row>
         <row r="457">
           <cell r="B457">
-            <v>5101912</v>
+            <v>5101902</v>
           </cell>
         </row>
         <row r="458">
           <cell r="B458">
-            <v>5101888</v>
+            <v>5101912</v>
           </cell>
         </row>
         <row r="459">
           <cell r="B459">
-            <v>5101777</v>
+            <v>5101888</v>
           </cell>
         </row>
         <row r="460">
           <cell r="B460">
-            <v>5101999</v>
+            <v>5101777</v>
           </cell>
         </row>
         <row r="461">
           <cell r="B461">
-            <v>5101186</v>
+            <v>5101999</v>
           </cell>
         </row>
         <row r="462">
           <cell r="B462">
-            <v>5101195</v>
+            <v>5101186</v>
           </cell>
         </row>
         <row r="463">
           <cell r="B463">
-            <v>5101190</v>
+            <v>5101195</v>
           </cell>
         </row>
         <row r="464">
           <cell r="B464">
-            <v>5101108</v>
+            <v>5101190</v>
           </cell>
         </row>
         <row r="465">
           <cell r="B465">
-            <v>5101900</v>
+            <v>5101108</v>
           </cell>
         </row>
         <row r="466">
           <cell r="B466">
-            <v>5101083</v>
+            <v>5101900</v>
           </cell>
         </row>
         <row r="467">
           <cell r="B467">
-            <v>5101985</v>
+            <v>5101083</v>
           </cell>
         </row>
         <row r="468">
           <cell r="B468">
-            <v>5101125</v>
+            <v>5101985</v>
           </cell>
         </row>
         <row r="469">
           <cell r="B469">
-            <v>5101011</v>
+            <v>5101125</v>
           </cell>
         </row>
         <row r="470">
           <cell r="B470">
-            <v>5101750</v>
+            <v>5101011</v>
           </cell>
         </row>
         <row r="471">
           <cell r="B471">
-            <v>5101009</v>
+            <v>5101750</v>
           </cell>
         </row>
         <row r="472">
           <cell r="B472">
-            <v>5101391</v>
+            <v>5101009</v>
           </cell>
         </row>
         <row r="473">
           <cell r="B473">
-            <v>5101448</v>
+            <v>5101391</v>
           </cell>
         </row>
         <row r="474">
           <cell r="B474">
-            <v>5101210</v>
+            <v>5101448</v>
           </cell>
         </row>
         <row r="475">
           <cell r="B475">
-            <v>5101221</v>
+            <v>5101210</v>
           </cell>
         </row>
         <row r="476">
           <cell r="B476">
-            <v>5101342</v>
+            <v>5101221</v>
           </cell>
         </row>
         <row r="477">
           <cell r="B477">
-            <v>4120009</v>
+            <v>5101342</v>
           </cell>
         </row>
         <row r="478">
           <cell r="B478">
-            <v>4120003</v>
+            <v>4120009</v>
           </cell>
         </row>
         <row r="479">
           <cell r="B479">
-            <v>4120900</v>
+            <v>4120003</v>
           </cell>
         </row>
         <row r="480">
           <cell r="B480">
-            <v>4120058</v>
+            <v>4120900</v>
           </cell>
         </row>
         <row r="481">
           <cell r="B481">
-            <v>4120850</v>
+            <v>4120058</v>
           </cell>
         </row>
         <row r="482">
           <cell r="B482">
-            <v>4120236</v>
+            <v>4120850</v>
           </cell>
         </row>
         <row r="483">
           <cell r="B483">
-            <v>4120024</v>
+            <v>4120236</v>
           </cell>
         </row>
         <row r="484">
           <cell r="B484">
-            <v>4120100</v>
+            <v>4120024</v>
           </cell>
         </row>
         <row r="485">
           <cell r="B485">
-            <v>4130771</v>
+            <v>4120100</v>
           </cell>
         </row>
         <row r="486">
           <cell r="B486">
-            <v>4120853</v>
+            <v>4130771</v>
           </cell>
         </row>
         <row r="487">
           <cell r="B487">
-            <v>4120982</v>
+            <v>4120853</v>
           </cell>
         </row>
         <row r="488">
           <cell r="B488">
-            <v>4120700</v>
+            <v>4120982</v>
           </cell>
         </row>
         <row r="489">
           <cell r="B489">
-            <v>4120042</v>
+            <v>4120700</v>
           </cell>
         </row>
         <row r="490">
           <cell r="B490">
-            <v>4120007</v>
+            <v>4120042</v>
           </cell>
         </row>
         <row r="491">
           <cell r="B491">
-            <v>4120567</v>
+            <v>4120007</v>
           </cell>
         </row>
         <row r="492">
           <cell r="B492">
-            <v>4120670</v>
+            <v>4120567</v>
           </cell>
         </row>
         <row r="493">
           <cell r="B493">
-            <v>4120800</v>
+            <v>4120670</v>
           </cell>
         </row>
         <row r="494">
           <cell r="B494">
-            <v>4120860</v>
+            <v>4120800</v>
           </cell>
         </row>
         <row r="495">
           <cell r="B495">
-            <v>4120110</v>
+            <v>4120860</v>
           </cell>
         </row>
         <row r="496">
           <cell r="B496">
-            <v>4130777</v>
+            <v>4120110</v>
           </cell>
         </row>
         <row r="497">
           <cell r="B497">
-            <v>4120854</v>
+            <v>4130777</v>
           </cell>
         </row>
         <row r="498">
           <cell r="B498">
-            <v>4120600</v>
+            <v>4120854</v>
           </cell>
         </row>
         <row r="499">
           <cell r="B499">
-            <v>2601900</v>
+            <v>4120600</v>
           </cell>
         </row>
         <row r="500">
           <cell r="B500">
-            <v>2601495</v>
+            <v>2601900</v>
           </cell>
         </row>
         <row r="501">
           <cell r="B501">
-            <v>1120450</v>
+            <v>2601495</v>
           </cell>
         </row>
         <row r="502">
           <cell r="B502">
-            <v>1120428</v>
+            <v>1120450</v>
           </cell>
         </row>
         <row r="503">
           <cell r="B503">
-            <v>8205020</v>
+            <v>1120428</v>
           </cell>
         </row>
         <row r="504">
           <cell r="B504">
-            <v>8205010</v>
+            <v>8205020</v>
           </cell>
         </row>
         <row r="505">
           <cell r="B505">
-            <v>8205018</v>
+            <v>8205010</v>
           </cell>
         </row>
         <row r="506">
           <cell r="B506">
-            <v>8205060</v>
+            <v>8205018</v>
           </cell>
         </row>
         <row r="507">
           <cell r="B507">
-            <v>8205040</v>
+            <v>8205060</v>
           </cell>
         </row>
         <row r="508">
           <cell r="B508">
-            <v>8205041</v>
+            <v>8205040</v>
           </cell>
         </row>
         <row r="509">
           <cell r="B509">
-            <v>8205115</v>
+            <v>8205041</v>
           </cell>
         </row>
         <row r="510">
           <cell r="B510">
-            <v>8205450</v>
+            <v>8205115</v>
           </cell>
         </row>
         <row r="511">
           <cell r="B511">
-            <v>8205800</v>
+            <v>8205450</v>
           </cell>
         </row>
         <row r="512">
           <cell r="B512">
-            <v>8205050</v>
+            <v>8205800</v>
           </cell>
         </row>
         <row r="513">
           <cell r="B513">
-            <v>8205051</v>
+            <v>8205050</v>
           </cell>
         </row>
         <row r="514">
           <cell r="B514">
-            <v>8205119</v>
+            <v>8205051</v>
           </cell>
         </row>
         <row r="515">
           <cell r="B515">
-            <v>8205118</v>
+            <v>8205119</v>
           </cell>
         </row>
         <row r="516">
           <cell r="B516">
-            <v>1120414</v>
+            <v>8205118</v>
           </cell>
         </row>
         <row r="517">
           <cell r="B517">
-            <v>1120173</v>
+            <v>1120414</v>
           </cell>
         </row>
         <row r="518">
           <cell r="B518">
-            <v>1120724</v>
+            <v>1120173</v>
           </cell>
         </row>
         <row r="519">
           <cell r="B519">
-            <v>1120720</v>
+            <v>1120724</v>
           </cell>
         </row>
         <row r="520">
           <cell r="B520">
-            <v>1120504</v>
+            <v>1120720</v>
           </cell>
         </row>
         <row r="521">
           <cell r="B521">
-            <v>1120191</v>
+            <v>1120504</v>
           </cell>
         </row>
         <row r="522">
           <cell r="B522">
-            <v>1120060</v>
+            <v>1120191</v>
           </cell>
         </row>
         <row r="523">
           <cell r="B523">
-            <v>1120500</v>
+            <v>1120060</v>
           </cell>
         </row>
         <row r="524">
           <cell r="B524">
-            <v>1120263</v>
+            <v>1120500</v>
           </cell>
         </row>
         <row r="525">
           <cell r="B525">
-            <v>1120789</v>
+            <v>1120263</v>
           </cell>
         </row>
         <row r="526">
           <cell r="B526">
-            <v>1120001</v>
+            <v>1120789</v>
           </cell>
         </row>
         <row r="527">
           <cell r="B527">
-            <v>1120876</v>
+            <v>1120001</v>
           </cell>
         </row>
         <row r="528">
           <cell r="B528">
-            <v>1120900</v>
+            <v>1120876</v>
           </cell>
         </row>
         <row r="529">
           <cell r="B529">
-            <v>1120875</v>
+            <v>1120900</v>
           </cell>
         </row>
         <row r="530">
           <cell r="B530">
-            <v>1120750</v>
+            <v>1120875</v>
           </cell>
         </row>
         <row r="531">
           <cell r="B531">
-            <v>1120330</v>
+            <v>1120750</v>
           </cell>
         </row>
         <row r="532">
           <cell r="B532">
-            <v>1120333</v>
+            <v>1120330</v>
           </cell>
         </row>
         <row r="533">
           <cell r="B533">
-            <v>1120666</v>
+            <v>1120333</v>
           </cell>
         </row>
         <row r="534">
           <cell r="B534">
-            <v>1120315</v>
+            <v>1120666</v>
           </cell>
         </row>
         <row r="535">
           <cell r="B535">
-            <v>1200900</v>
+            <v>1120315</v>
           </cell>
         </row>
         <row r="536">
           <cell r="B536">
-            <v>1200001</v>
+            <v>1200900</v>
           </cell>
         </row>
         <row r="537">
           <cell r="B537">
-            <v>1120800</v>
+            <v>1200001</v>
           </cell>
         </row>
         <row r="538">
           <cell r="B538">
-            <v>1120182</v>
+            <v>1120800</v>
           </cell>
         </row>
         <row r="539">
           <cell r="B539">
-            <v>1120499</v>
+            <v>1120182</v>
           </cell>
         </row>
         <row r="540">
           <cell r="B540">
-            <v>1120286</v>
+            <v>1120499</v>
           </cell>
         </row>
         <row r="541">
           <cell r="B541">
-            <v>1120130</v>
+            <v>1120286</v>
           </cell>
         </row>
         <row r="542">
           <cell r="B542">
-            <v>1120170</v>
+            <v>1120130</v>
           </cell>
         </row>
         <row r="543">
           <cell r="B543">
-            <v>1120140</v>
+            <v>1120170</v>
           </cell>
         </row>
         <row r="544">
           <cell r="B544">
-            <v>1120285</v>
+            <v>1120140</v>
           </cell>
         </row>
         <row r="545">
           <cell r="B545">
-            <v>1120950</v>
+            <v>1120285</v>
           </cell>
         </row>
         <row r="546">
           <cell r="B546">
-            <v>1120858</v>
+            <v>1120950</v>
           </cell>
         </row>
         <row r="547">
           <cell r="B547">
-            <v>1120850</v>
+            <v>1120858</v>
           </cell>
         </row>
         <row r="548">
           <cell r="B548">
-            <v>1120623</v>
+            <v>1120850</v>
           </cell>
         </row>
         <row r="549">
           <cell r="B549">
-            <v>1120640</v>
+            <v>1120623</v>
           </cell>
         </row>
         <row r="550">
           <cell r="B550">
-            <v>1120165</v>
+            <v>1120640</v>
           </cell>
         </row>
         <row r="551">
           <cell r="B551">
-            <v>1120445</v>
+            <v>1120165</v>
           </cell>
         </row>
         <row r="552">
           <cell r="B552">
-            <v>1120856</v>
+            <v>1120445</v>
           </cell>
         </row>
         <row r="553">
           <cell r="B553">
-            <v>1120250</v>
+            <v>1120856</v>
           </cell>
         </row>
         <row r="554">
           <cell r="B554">
-            <v>1120206</v>
+            <v>1120250</v>
           </cell>
         </row>
         <row r="555">
           <cell r="B555">
-            <v>1120106</v>
+            <v>1120206</v>
           </cell>
         </row>
         <row r="556">
           <cell r="B556">
-            <v>1120003</v>
+            <v>1120106</v>
           </cell>
         </row>
         <row r="557">
           <cell r="B557">
-            <v>8708099</v>
+            <v>1120003</v>
           </cell>
         </row>
         <row r="558">
           <cell r="B558">
-            <v>8708110</v>
+            <v>8708099</v>
           </cell>
         </row>
         <row r="559">
           <cell r="B559">
-            <v>8708104</v>
+            <v>8708110</v>
           </cell>
         </row>
         <row r="560">
           <cell r="B560">
-            <v>8301008</v>
+            <v>8708104</v>
           </cell>
         </row>
         <row r="561">
           <cell r="B561">
-            <v>8301000</v>
+            <v>8301008</v>
           </cell>
         </row>
         <row r="562">
           <cell r="B562">
-            <v>8301900</v>
+            <v>8301000</v>
           </cell>
         </row>
         <row r="563">
           <cell r="B563">
-            <v>8301312</v>
+            <v>8301900</v>
           </cell>
         </row>
         <row r="564">
           <cell r="B564">
-            <v>8503168</v>
+            <v>8301312</v>
           </cell>
         </row>
         <row r="565">
           <cell r="B565">
-            <v>8503402</v>
+            <v>8503168</v>
           </cell>
         </row>
         <row r="566">
           <cell r="B566">
+            <v>8503402</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="B567">
             <v>8503125</v>
           </cell>
         </row>
@@ -3640,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A2,"")</f>
+        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A2,"")</f>
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -3653,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A3,"")</f>
+        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A3,"")</f>
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
@@ -3666,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A4,"")</f>
+        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A4,"")</f>
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -3679,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A5,"")</f>
+        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A5,"")</f>
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3694,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A6,"")</f>
+        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A6,"")</f>
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -3707,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A7,"")</f>
+        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A7,"")</f>
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3722,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A8,"")</f>
+        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A8,"")</f>
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
@@ -3735,7 +3740,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A9,"")</f>
+        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A9,"")</f>
         <v/>
       </c>
       <c r="D9" s="2" t="s">
@@ -3750,7 +3755,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A10,"")</f>
+        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A10,"")</f>
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
@@ -3763,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A11,"")</f>
+        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A11,"")</f>
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
@@ -3776,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A12,"")</f>
+        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A12,"")</f>
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
@@ -3789,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A13,"")</f>
+        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A13,"")</f>
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
@@ -3802,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A14,"")</f>
+        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A14,"")</f>
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
@@ -3815,7 +3820,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A15,"")</f>
+        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A15,"")</f>
         <v/>
       </c>
       <c r="D15" s="2" t="s">
@@ -3830,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A16,"")</f>
+        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A16,"")</f>
         <v>1</v>
       </c>
       <c r="D16" s="2"/>
@@ -3843,7 +3848,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A17,"")</f>
+        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A17,"")</f>
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
@@ -3856,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A18,"")</f>
+        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A18,"")</f>
         <v/>
       </c>
       <c r="D18" s="2"/>
@@ -3869,7 +3874,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A19,"")</f>
+        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A19,"")</f>
         <v/>
       </c>
       <c r="D19" s="2"/>
@@ -3882,7 +3887,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A20,"")</f>
+        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A20,"")</f>
         <v>1</v>
       </c>
       <c r="D20" s="2"/>
@@ -3895,7 +3900,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A21,"")</f>
+        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A21,"")</f>
         <v/>
       </c>
       <c r="D21" s="2" t="s">
@@ -3910,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A22,"")</f>
+        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A22,"")</f>
         <v/>
       </c>
       <c r="D22" s="2" t="s">
@@ -3925,7 +3930,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A23,"")</f>
+        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A23,"")</f>
         <v/>
       </c>
       <c r="D23" s="2" t="s">
@@ -3940,7 +3945,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A24,"")</f>
+        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A24,"")</f>
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3955,7 +3960,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A25,"")</f>
+        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A25,"")</f>
         <v/>
       </c>
       <c r="D25" s="2"/>
@@ -3968,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A26,"")</f>
+        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A26,"")</f>
         <v/>
       </c>
       <c r="D26" s="2"/>
@@ -3981,7 +3986,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A27,"")</f>
+        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A27,"")</f>
         <v/>
       </c>
       <c r="D27" s="2"/>
@@ -3994,7 +3999,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A28,"")</f>
+        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A28,"")</f>
         <v>1</v>
       </c>
       <c r="D28" s="2"/>
@@ -4007,7 +4012,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A29,"")</f>
+        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A29,"")</f>
         <v>1</v>
       </c>
       <c r="D29" s="2"/>
@@ -4020,7 +4025,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A30,"")</f>
+        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A30,"")</f>
         <v>1</v>
       </c>
       <c r="D30" s="2"/>
@@ -4033,7 +4038,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A31,"")</f>
+        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A31,"")</f>
         <v>1</v>
       </c>
       <c r="D31" s="2"/>
@@ -4046,7 +4051,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A32,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A32,"")</f>
+        <f>IFERROR(VLOOKUP(A32,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A32,"")</f>
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4061,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A33,"")</f>
+        <f>IFERROR(VLOOKUP(A33,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A33,"")</f>
         <v/>
       </c>
       <c r="D33" s="2" t="s">
@@ -4076,7 +4081,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A34,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A34,"")</f>
+        <f>IFERROR(VLOOKUP(A34,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A34,"")</f>
         <v>1</v>
       </c>
       <c r="D34" s="2"/>
@@ -4089,7 +4094,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A35,"")</f>
+        <f>IFERROR(VLOOKUP(A35,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A35,"")</f>
         <v/>
       </c>
       <c r="D35" s="2"/>
@@ -4110,7 +4115,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4142,7 +4147,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A2,"")</f>
+        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A2,"")</f>
         <v/>
       </c>
       <c r="D2" s="2"/>
@@ -4155,7 +4160,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A3,"")</f>
+        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A3,"")</f>
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
@@ -4168,7 +4173,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A4,"")</f>
+        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A4,"")</f>
         <v/>
       </c>
       <c r="D4" s="2"/>
@@ -4181,7 +4186,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A5,"")</f>
+        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A5,"")</f>
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
@@ -4194,7 +4199,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A6,"")</f>
+        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A6,"")</f>
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -4207,7 +4212,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A7,"")</f>
+        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A7,"")</f>
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
@@ -4220,7 +4225,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A8,"")</f>
+        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A8,"")</f>
         <v/>
       </c>
       <c r="D8" s="2"/>
@@ -4233,7 +4238,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A9,"")</f>
+        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A9,"")</f>
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
@@ -4246,7 +4251,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A10,"")</f>
+        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A10,"")</f>
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
@@ -4259,7 +4264,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A11,"")</f>
+        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A11,"")</f>
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
@@ -4272,7 +4277,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A12,"")</f>
+        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A12,"")</f>
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
@@ -4285,7 +4290,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A13,"")</f>
+        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A13,"")</f>
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
@@ -4298,7 +4303,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A14,"")</f>
+        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A14,"")</f>
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
@@ -4311,7 +4316,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A15,"")</f>
+        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A15,"")</f>
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
@@ -4324,7 +4329,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A16,"")</f>
+        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A16,"")</f>
         <v/>
       </c>
       <c r="D16" s="2"/>
@@ -4337,7 +4342,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A17,"")</f>
+        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A17,"")</f>
         <v/>
       </c>
       <c r="D17" s="2"/>
@@ -4350,7 +4355,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A18,"")</f>
+        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A18,"")</f>
         <v/>
       </c>
       <c r="D18" s="2"/>
@@ -4363,7 +4368,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A19,"")</f>
+        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A19,"")</f>
         <v>1</v>
       </c>
       <c r="D19" s="2"/>
@@ -4376,7 +4381,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A20,"")</f>
+        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A20,"")</f>
         <v>1</v>
       </c>
       <c r="D20" s="2"/>
@@ -4389,7 +4394,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A21,"")</f>
+        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A21,"")</f>
         <v>1</v>
       </c>
       <c r="D21" s="2"/>
@@ -4402,7 +4407,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A22,"")</f>
+        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A22,"")</f>
         <v>1</v>
       </c>
       <c r="D22" s="2"/>
@@ -4415,7 +4420,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A23,"")</f>
+        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A23,"")</f>
         <v/>
       </c>
       <c r="D23" s="2"/>
@@ -4428,7 +4433,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A24,"")</f>
+        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A24,"")</f>
         <v/>
       </c>
       <c r="D24" s="2"/>
@@ -4441,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A25,"")</f>
+        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A25,"")</f>
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
@@ -4454,7 +4459,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A26,"")</f>
+        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A26,"")</f>
         <v>1</v>
       </c>
       <c r="D26" s="2"/>
@@ -4467,7 +4472,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A27,"")</f>
+        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A27,"")</f>
         <v/>
       </c>
       <c r="D27" s="2"/>
@@ -4480,7 +4485,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A28,"")</f>
+        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A28,"")</f>
         <v/>
       </c>
       <c r="D28" s="2"/>
@@ -4493,7 +4498,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A29,"")</f>
+        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A29,"")</f>
         <v>1</v>
       </c>
       <c r="D29" s="2"/>
@@ -4506,7 +4511,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A30,"")</f>
+        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A30,"")</f>
         <v/>
       </c>
       <c r="D30" s="2"/>
@@ -4519,7 +4524,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A31,"")</f>
+        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A31,"")</f>
         <v/>
       </c>
       <c r="D31" s="2"/>
@@ -4542,8 +4547,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4580,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A2,"")</f>
+        <f>IFERROR(VLOOKUP(A2,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A2,"")</f>
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -4588,7 +4593,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A3,"")</f>
+        <f>IFERROR(VLOOKUP(A3,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A3,"")</f>
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
@@ -4601,7 +4606,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A4,"")</f>
+        <f>IFERROR(VLOOKUP(A4,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A4,"")</f>
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -4614,7 +4619,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A5,"")</f>
+        <f>IFERROR(VLOOKUP(A5,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A5,"")</f>
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
@@ -4627,7 +4632,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A6,"")</f>
+        <f>IFERROR(VLOOKUP(A6,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A6,"")</f>
         <v/>
       </c>
       <c r="D6" s="2" t="s">
@@ -4642,7 +4647,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A7,"")</f>
+        <f>IFERROR(VLOOKUP(A7,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A7,"")</f>
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
@@ -4655,7 +4660,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A8,"")</f>
+        <f>IFERROR(VLOOKUP(A8,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A8,"")</f>
         <v/>
       </c>
       <c r="D8" s="2" t="s">
@@ -4670,7 +4675,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A9,"")</f>
+        <f>IFERROR(VLOOKUP(A9,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A9,"")</f>
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
@@ -4683,7 +4688,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A10,"")</f>
+        <f>IFERROR(VLOOKUP(A10,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A10,"")</f>
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
@@ -4696,7 +4701,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A11,"")</f>
+        <f>IFERROR(VLOOKUP(A11,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A11,"")</f>
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
@@ -4709,7 +4714,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A12,"")</f>
+        <f>IFERROR(VLOOKUP(A12,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A12,"")</f>
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
@@ -4722,7 +4727,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A13,"")</f>
+        <f>IFERROR(VLOOKUP(A13,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A13,"")</f>
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
@@ -4735,7 +4740,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A14,"")</f>
+        <f>IFERROR(VLOOKUP(A14,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A14,"")</f>
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
@@ -4748,7 +4753,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A15,"")</f>
+        <f>IFERROR(VLOOKUP(A15,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A15,"")</f>
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
@@ -4761,7 +4766,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A16,"")</f>
+        <f>IFERROR(VLOOKUP(A16,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A16,"")</f>
         <v>1</v>
       </c>
       <c r="D16" s="2"/>
@@ -4774,7 +4779,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A17,"")</f>
+        <f>IFERROR(VLOOKUP(A17,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A17,"")</f>
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
@@ -4787,7 +4792,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A18,"")</f>
+        <f>IFERROR(VLOOKUP(A18,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A18,"")</f>
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
@@ -4800,7 +4805,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A19,"")</f>
+        <f>IFERROR(VLOOKUP(A19,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A19,"")</f>
         <v>1</v>
       </c>
       <c r="D19" s="2"/>
@@ -4813,7 +4818,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A20,"")</f>
+        <f>IFERROR(VLOOKUP(A20,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A20,"")</f>
         <v>1</v>
       </c>
       <c r="D20" s="2"/>
@@ -4826,7 +4831,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A21,"")</f>
+        <f>IFERROR(VLOOKUP(A21,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A21,"")</f>
         <v>1</v>
       </c>
       <c r="D21" s="2"/>
@@ -4839,7 +4844,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A22,"")</f>
+        <f>IFERROR(VLOOKUP(A22,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A22,"")</f>
         <v/>
       </c>
       <c r="D22" s="2" t="s">
@@ -4854,7 +4859,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A23,"")</f>
+        <f>IFERROR(VLOOKUP(A23,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A23,"")</f>
         <v>1</v>
       </c>
       <c r="D23" s="2"/>
@@ -4867,7 +4872,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A24,"")</f>
+        <f>IFERROR(VLOOKUP(A24,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A24,"")</f>
         <v/>
       </c>
       <c r="D24" s="2"/>
@@ -4880,7 +4885,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A25,"")</f>
+        <f>IFERROR(VLOOKUP(A25,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A25,"")</f>
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
@@ -4893,7 +4898,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A26,"")</f>
+        <f>IFERROR(VLOOKUP(A26,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A26,"")</f>
         <v>1</v>
       </c>
       <c r="D26" s="2"/>
@@ -4906,7 +4911,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A27,"")</f>
+        <f>IFERROR(VLOOKUP(A27,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A27,"")</f>
         <v>1</v>
       </c>
       <c r="D27" s="2"/>
@@ -4919,7 +4924,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A28,"")</f>
+        <f>IFERROR(VLOOKUP(A28,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A28,"")</f>
         <v>1</v>
       </c>
       <c r="D28" s="2"/>
@@ -4932,7 +4937,7 @@
         <v>91</v>
       </c>
       <c r="C29" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A29,"")</f>
+        <f>IFERROR(VLOOKUP(A29,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A29,"")</f>
         <v>1</v>
       </c>
       <c r="D29" s="2"/>
@@ -4945,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A30,"")</f>
+        <f>IFERROR(VLOOKUP(A30,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A30,"")</f>
         <v>1</v>
       </c>
       <c r="D30" s="2"/>
@@ -4958,7 +4963,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A31,"")</f>
+        <f>IFERROR(VLOOKUP(A31,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A31,"")</f>
         <v>1</v>
       </c>
       <c r="D31" s="2"/>
@@ -4971,7 +4976,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A32,"")</f>
+        <f>IFERROR(VLOOKUP(A32,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A32,"")</f>
         <v/>
       </c>
       <c r="D32" s="2" t="s">
@@ -4986,7 +4991,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A33,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A33,"")</f>
+        <f>IFERROR(VLOOKUP(A33,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A33,"")</f>
         <v>1</v>
       </c>
       <c r="D33" s="2"/>
@@ -4999,7 +5004,7 @@
         <v>96</v>
       </c>
       <c r="C34" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A34,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A34,"")</f>
+        <f>IFERROR(VLOOKUP(A34,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A34,"")</f>
         <v>1</v>
       </c>
       <c r="D34" s="2"/>
@@ -5012,7 +5017,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A35,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A35,"")</f>
+        <f>IFERROR(VLOOKUP(A35,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A35,"")</f>
         <v>1</v>
       </c>
       <c r="D35" s="2"/>
@@ -5025,7 +5030,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A36,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A36,"")</f>
+        <f>IFERROR(VLOOKUP(A36,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A36,"")</f>
         <v>1</v>
       </c>
       <c r="D36" s="2"/>
@@ -5038,7 +5043,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A37,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A37,"")</f>
+        <f>IFERROR(VLOOKUP(A37,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A37,"")</f>
         <v>1</v>
       </c>
       <c r="D37" s="2"/>
@@ -5051,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A38,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A38,"")</f>
+        <f>IFERROR(VLOOKUP(A38,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A38,"")</f>
         <v>1</v>
       </c>
       <c r="D38" s="2"/>
@@ -5064,7 +5069,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A39,"")</f>
+        <f>IFERROR(VLOOKUP(A39,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A39,"")</f>
         <v/>
       </c>
       <c r="D39" s="2" t="s">
@@ -5079,7 +5084,7 @@
         <v>102</v>
       </c>
       <c r="C40" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A40,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A40,"")</f>
+        <f>IFERROR(VLOOKUP(A40,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A40,"")</f>
         <v>1</v>
       </c>
       <c r="D40" s="2"/>
@@ -5092,7 +5097,7 @@
         <v>103</v>
       </c>
       <c r="C41" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A41,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A41,"")</f>
+        <f>IFERROR(VLOOKUP(A41,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A41,"")</f>
         <v>1</v>
       </c>
       <c r="D41" s="2"/>
@@ -5105,7 +5110,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A42,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A42,"")</f>
+        <f>IFERROR(VLOOKUP(A42,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A42,"")</f>
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -5120,7 +5125,7 @@
         <v>105</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A43,"")</f>
+        <f>IFERROR(VLOOKUP(A43,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A43,"")</f>
         <v/>
       </c>
       <c r="D43" s="2" t="s">
@@ -5135,7 +5140,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A44,"")</f>
+        <f>IFERROR(VLOOKUP(A44,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A44,"")</f>
         <v/>
       </c>
       <c r="D44" s="2" t="s">
@@ -5150,7 +5155,7 @@
         <v>107</v>
       </c>
       <c r="C45" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A45,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A45,"")</f>
+        <f>IFERROR(VLOOKUP(A45,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A45,"")</f>
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
@@ -5163,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="2" t="b">
-        <f>IFERROR(VLOOKUP(A46,[1]CATALOGO!$B$2:$B$1563,1,FALSE)=A46,"")</f>
+        <f>IFERROR(VLOOKUP(A46,[1]CATALOGO!$B$2:$B$1564,1,FALSE)=A46,"")</f>
         <v>1</v>
       </c>
       <c r="D46" s="2"/>
